--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,61 +22,91 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>005552</t>
   </si>
   <si>
+    <t>001487</t>
+  </si>
+  <si>
     <t>005553</t>
   </si>
   <si>
-    <t>001487</t>
-  </si>
-  <si>
     <t>519125</t>
   </si>
   <si>
+    <t>003092</t>
+  </si>
+  <si>
+    <t>003093</t>
+  </si>
+  <si>
+    <t>005161</t>
+  </si>
+  <si>
     <t>519176</t>
   </si>
   <si>
-    <t>005161</t>
-  </si>
-  <si>
-    <t>003092</t>
-  </si>
-  <si>
-    <t>003093</t>
-  </si>
-  <si>
     <t>富兰克林国海新趋势灵活配置混合A</t>
   </si>
   <si>
+    <t>宝盈优势产业灵活配置混合</t>
+  </si>
+  <si>
     <t>富兰克林国海新趋势灵活配置混合C</t>
   </si>
   <si>
-    <t>宝盈优势产业灵活配置混合</t>
-  </si>
-  <si>
     <t>浦银安盛消费升级混合A</t>
   </si>
   <si>
+    <t>华商丰利增强定期开放债券A</t>
+  </si>
+  <si>
+    <t>华商丰利增强定期开放债券C</t>
+  </si>
+  <si>
+    <t>华商上游产业股票</t>
+  </si>
+  <si>
     <t>浦银安盛消费升级混合C</t>
   </si>
   <si>
-    <t>华商上游产业股票</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券A</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券C</t>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>27.05</t>
@@ -88,12 +118,12 @@
     <t>82.72</t>
   </si>
   <si>
+    <t>20.02</t>
+  </si>
+  <si>
     <t>83.09</t>
   </si>
   <si>
-    <t>20.02</t>
-  </si>
-  <si>
     <t>2.02</t>
   </si>
   <si>
@@ -103,10 +133,34 @@
     <t>4.94</t>
   </si>
   <si>
+    <t>1.18</t>
+  </si>
+  <si>
     <t>2.68</t>
   </si>
   <si>
-    <t>1.18</t>
+    <t>0.1024</t>
+  </si>
+  <si>
+    <t>0.0611</t>
+  </si>
+  <si>
+    <t>0.0360</t>
+  </si>
+  <si>
+    <t>0.0203</t>
+  </si>
+  <si>
+    <t>0.0117</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0020</t>
   </si>
 </sst>
 </file>
@@ -464,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,165 +540,219 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,1044 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2470,4 +2471,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2479,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2490,17 +2491,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2510,14 +2531,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.24</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2526,14 +2569,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.24</v>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2542,13 +2607,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3182,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,17 +3194,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3213,14 +3234,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.529999999999999</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3229,14 +3272,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.24</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3245,14 +3310,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.24</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3261,13 +3348,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3733,7 +3734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,17 +3745,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3764,14 +3785,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.869999999999999</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3780,14 +3823,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.529999999999999</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3796,14 +3861,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.24</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3812,14 +3899,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.24</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3828,13 +3937,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005552</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005553</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2981</t>
+          <t>3.6094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -905,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6883</t>
+          <t>1.5963</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -943,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3750</t>
+          <t>0.7719</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.42</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3546</t>
+          <t>0.5211</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1019,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519909</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安安顺灵活配置混合</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.27</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2002</t>
+          <t>0.3697</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1057,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.2889</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1095,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1133,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0465</t>
+          <t>0.1125</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1171,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.1041</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1209,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0999</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1247,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011377</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信积极成长股票A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0904</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1285,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011378</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信积极成长股票C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1323,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>015384</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>万家瑞隆混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.88</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1361,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>010853</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>中欧内需成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.88</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0534</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1399,36 +1171,302 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>160323</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>华夏磐泰混合（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.32</t>
+          <t>29.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.0021</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,7 +1501,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1503,22 +1541,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.05</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.2850</t>
+          <t>4.3749</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1541,26 +1579,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.38</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>88.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2281</t>
+          <t>1.9174</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1579,26 +1617,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>88.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7653</t>
+          <t>0.6163</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1607,36 +1645,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5992</t>
+          <t>0.5131</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1645,36 +1683,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011336</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴全汇吉一年持有期混合A</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.13</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40.52</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5797</t>
+          <t>0.3675</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1683,36 +1721,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519909</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安安顺灵活配置混合</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.46</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3492</t>
+          <t>0.3463</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1721,36 +1759,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1935</t>
+          <t>0.1845</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1759,36 +1797,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005552</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富兰克林国海新趋势灵活配置混合A</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>88.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1839</t>
+          <t>0.1632</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1797,36 +1835,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1067</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1845,26 +1883,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1028</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1873,36 +1911,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1446</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1911,32 +1949,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>010853</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>中欧内需成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1351</t>
+          <t>0.0657</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1949,526 +1987,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1067</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0807</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.15</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0639</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519115</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0538</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005553</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富兰克林国海新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011337</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴全汇吉一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>40.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011377</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011378</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160415</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安量化多因子混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008441</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>九泰科新优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008442</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>九泰科新优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +2732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3205,7 +2753,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3245,22 +2793,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>59.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3749</t>
+          <t>5.2850</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3283,26 +2831,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9174</t>
+          <t>2.2281</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3321,26 +2869,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6163</t>
+          <t>0.7653</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3349,36 +2897,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5131</t>
+          <t>0.5992</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3387,36 +2935,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>011336</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>兴全汇吉一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3675</t>
+          <t>0.5797</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3425,36 +2973,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3463</t>
+          <t>0.3492</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3463,36 +3011,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1845</t>
+          <t>0.1935</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3501,36 +3049,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>005552</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1632</t>
+          <t>0.1839</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3539,36 +3087,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1067</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3587,26 +3135,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1028</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3615,36 +3163,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.1446</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3653,32 +3201,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010853</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.1351</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3691,36 +3239,526 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>004819</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3755,7 +3793,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3785,36 +3823,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6094</t>
+          <t>1.2981</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3823,36 +3861,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5963</t>
+          <t>0.6883</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3861,36 +3899,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7719</t>
+          <t>0.3750</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3899,36 +3937,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5211</t>
+          <t>0.3546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3937,36 +3975,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3697</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3975,36 +4013,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2889</t>
+          <t>0.1348</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4013,36 +4051,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2463</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4051,36 +4089,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1125</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -4089,36 +4127,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>78.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1041</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4127,36 +4165,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0999</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4165,36 +4203,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>011377</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>创金合信积极成长股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4203,36 +4241,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>011378</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>创金合信积极成长股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -4241,36 +4279,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>015384</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家瑞隆混合C</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -4279,36 +4317,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010853</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0534</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4317,302 +4355,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160323</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.60</t>
+          <t>78.32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0435</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013360</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014029</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>44.71</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001731</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001732</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4626,128 +4398,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.140000000000001</v>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.869999999999999</v>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.529999999999999</v>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.24</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.24</v>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.25</v>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>8.140000000000001</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>8.869999999999999</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>9.529999999999999</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>11.24</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>3.24</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -583,6 +600,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1474,7 +2345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2024,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2726,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3766,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4392,7 +5263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300587-天铁股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.72</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>8.140000000000001</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>9.529999999999999</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>11.24</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>3.24</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -600,6 +617,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015870</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015886</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2895,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3597,7 +4426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4637,7 +5466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5263,7 +6092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
